--- a/3 course/comp_math/lab5/lab5.xlsx
+++ b/3 course/comp_math/lab5/lab5.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n1sko\git\NSULabs\3 course\comp_math\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D3957F-C190-4BA9-999D-0D30B0C48EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55E494D-277B-435E-8C55-678A1276C931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Якоби" sheetId="1" r:id="rId1"/>
+    <sheet name="Зейделя" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>k</t>
   </si>
@@ -576,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,4 +767,284 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECAA8C8-553E-44EE-8D83-0D58750A7578}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <f>MAX(ABS(B2-$H$3),ABS(C2-$H$3))</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>IF(D2 &lt; $G$3, "✔","✘")</f>
+        <v>✘</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f>(1+C2)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <f>(1+B2)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1">
+        <f>MAX(ABS(B3-$H$3),ABS(C3-$H$3))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(D3 &lt; $G$3, "✔","✘")</f>
+        <v>✘</v>
+      </c>
+      <c r="G3" s="3">
+        <f>10^(-3)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f>(1+C3)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C14" si="0">(1+B3)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="1">
+        <f>MAX(ABS(B4-$H$3),ABS(C4-$H$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(D4 &lt; $G$3, "✔","✘")</f>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B14" si="1">(1+C4)/2</f>
+        <v>0.875</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D8" si="2">MAX(ABS(B5-$H$3),ABS(C5-$H$3))</f>
+        <v>0.125</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ref="E5:E14" si="3">IF(D5 &lt; $G$3, "✔","✘")</f>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96875</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96875</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.984375</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.984375</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9921875</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9921875</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:D10" si="4">MAX(ABS(B9-$H$3),ABS(C9-$H$3))</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99609375</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99609375</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="4"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.998046875</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.998046875</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:D12" si="5">MAX(ABS(B11-$H$3),ABS(C11-$H$3))</f>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9990234375</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9990234375</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="5"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✔</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/3 course/comp_math/lab5/lab5.xlsx
+++ b/3 course/comp_math/lab5/lab5.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n1sko\git\NSULabs\3 course\comp_math\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55E494D-277B-435E-8C55-678A1276C931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7393F42B-CB38-479F-AFE9-3C2FE6051CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Якоби" sheetId="1" r:id="rId1"/>
-    <sheet name="Зейделя" sheetId="2" r:id="rId2"/>
+    <sheet name="Якоби" sheetId="2" r:id="rId1"/>
+    <sheet name="Зейделя" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -574,6 +574,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECAA8C8-553E-44EE-8D83-0D58750A7578}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <f>MAX(ABS(B2-$H$3),ABS(C2-$H$3))</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>IF(D2 &lt; $G$3, "✔","✘")</f>
+        <v>✘</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <f>(1+C2)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <f>(1+B2)/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="1">
+        <f>MAX(ABS(B3-$H$3),ABS(C3-$H$3))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>IF(D3 &lt; $G$3, "✔","✘")</f>
+        <v>✘</v>
+      </c>
+      <c r="G3" s="3">
+        <f>10^(-3)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f>(1+C3)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C12" si="0">(1+B3)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="1">
+        <f>MAX(ABS(B4-$H$3),ABS(C4-$H$3))</f>
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(D4 &lt; $G$3, "✔","✘")</f>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B12" si="1">(1+C4)/2</f>
+        <v>0.875</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D8" si="2">MAX(ABS(B5-$H$3),ABS(C5-$H$3))</f>
+        <v>0.125</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" ref="E5:E12" si="3">IF(D5 &lt; $G$3, "✔","✘")</f>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96875</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96875</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.984375</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.984375</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9921875</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9921875</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:D10" si="4">MAX(ABS(B9-$H$3),ABS(C9-$H$3))</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99609375</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99609375</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="4"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.998046875</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.998046875</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:D12" si="5">MAX(ABS(B11-$H$3),ABS(C11-$H$3))</f>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✘</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9990234375</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9990234375</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="5"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>✔</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -767,284 +1047,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECAA8C8-553E-44EE-8D83-0D58750A7578}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <f>MAX(ABS(B2-$H$3),ABS(C2-$H$3))</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <f>IF(D2 &lt; $G$3, "✔","✘")</f>
-        <v>✘</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <f>(1+C2)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="1">
-        <f>(1+B2)/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="1">
-        <f>MAX(ABS(B3-$H$3),ABS(C3-$H$3))</f>
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f>IF(D3 &lt; $G$3, "✔","✘")</f>
-        <v>✘</v>
-      </c>
-      <c r="G3" s="3">
-        <f>10^(-3)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <f>(1+C3)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C14" si="0">(1+B3)/2</f>
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="1">
-        <f>MAX(ABS(B4-$H$3),ABS(C4-$H$3))</f>
-        <v>0.25</v>
-      </c>
-      <c r="E4" s="6" t="str">
-        <f>IF(D4 &lt; $G$3, "✔","✘")</f>
-        <v>✘</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" ref="B5:B14" si="1">(1+C4)/2</f>
-        <v>0.875</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D8" si="2">MAX(ABS(B5-$H$3),ABS(C5-$H$3))</f>
-        <v>0.125</v>
-      </c>
-      <c r="E5" s="6" t="str">
-        <f t="shared" ref="E5:E14" si="3">IF(D5 &lt; $G$3, "✔","✘")</f>
-        <v>✘</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9375</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9375</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="2"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E6" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>✘</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.96875</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.96875</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="2"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="E7" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>✘</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.984375</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.984375</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>✘</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9921875</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9921875</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ref="D9:D10" si="4">MAX(ABS(B9-$H$3),ABS(C9-$H$3))</f>
-        <v>7.8125E-3</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>✘</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99609375</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99609375</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="4"/>
-        <v>3.90625E-3</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>✘</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.998046875</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.998046875</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" ref="D11:D12" si="5">MAX(ABS(B11-$H$3),ABS(C11-$H$3))</f>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>✘</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9990234375</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9990234375</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="5"/>
-        <v>9.765625E-4</v>
-      </c>
-      <c r="E12" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>✔</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>